--- a/data/trans_camb/P26-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P26-Provincia-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-3.590443759282741</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-22.01923197560502</v>
+        <v>-22.01923197560501</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.578636020630038</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.637276929323535</v>
+        <v>-3.945073585961176</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.687501242712269</v>
+        <v>-8.091575372218847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-23.62098663298433</v>
+        <v>-25.21344962458678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.742409755683608</v>
+        <v>-9.246737773089206</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.75856048523137</v>
+        <v>-13.30657573274817</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-30.28374354916491</v>
+        <v>-30.14432443923545</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.193092052652688</v>
+        <v>-3.749239076938696</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.877503178958764</v>
+        <v>-7.236499582331452</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-25.09377496184455</v>
+        <v>-24.90536988484005</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.64856315339591</v>
+        <v>13.07457357347639</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.037365013926273</v>
+        <v>9.941444358419837</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.490026733779802</v>
+        <v>-9.191953322597602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.929380471536104</v>
+        <v>8.751580266724465</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.026323802672309</v>
+        <v>5.038348851011325</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-13.79822276334569</v>
+        <v>-14.06150880884723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.857498403881859</v>
+        <v>8.966142909821793</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.235861916888621</v>
+        <v>4.825128954600124</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-13.75222293070065</v>
+        <v>-13.79542077705246</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0704611616577098</v>
+        <v>-0.10970771703462</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2088472017897655</v>
+        <v>-0.2149534063909928</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6552921374058608</v>
+        <v>-0.6713055631613999</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.209881161502053</v>
+        <v>-0.1962511216569363</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2661141943350444</v>
+        <v>-0.2835395602599103</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6304202538358139</v>
+        <v>-0.6310355489453164</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07887524262931803</v>
+        <v>-0.09013630315125956</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1916627023882296</v>
+        <v>-0.1801017623727515</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6055048962528652</v>
+        <v>-0.5994729799572759</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5146135237396858</v>
+        <v>0.4506801200408198</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3289027514772271</v>
+        <v>0.3420561276950942</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3047409403391136</v>
+        <v>-0.3131484735365399</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2410060090689573</v>
+        <v>0.2294258261800354</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1696186439432487</v>
+        <v>0.1340157128032589</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3635091526232335</v>
+        <v>-0.3644932657766773</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2541818377986401</v>
+        <v>0.2648349179589986</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1455605282037437</v>
+        <v>0.1364999527565007</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3891997546506821</v>
+        <v>-0.389417790030499</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.075246991636827</v>
+        <v>0.9042476083756006</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.184779901816443</v>
+        <v>-9.087732245017007</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.60830673970451</v>
+        <v>-21.81451219729323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.526691101330846</v>
+        <v>1.065630248488681</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.111042259001461</v>
+        <v>-6.599583495001856</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.26090518194082</v>
+        <v>-26.81616557575643</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.320542552091085</v>
+        <v>2.58630526600863</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.801618461816934</v>
+        <v>-5.747397149927775</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-22.37662688697954</v>
+        <v>-22.25171479225492</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.00692639441969</v>
+        <v>13.39046375097237</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.038298802505815</v>
+        <v>3.271077645976898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.4006342562056</v>
+        <v>-10.90244782056628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.75466699870893</v>
+        <v>13.55230105948037</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.136739716875158</v>
+        <v>5.517064519279575</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-16.04652835450197</v>
+        <v>-16.12661676145119</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.38810889557125</v>
+        <v>11.84600617081443</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.261121534258833</v>
+        <v>2.997988666906049</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-14.6152737211873</v>
+        <v>-15.03128116423736</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.0886814292967229</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.6331865960522098</v>
+        <v>-0.6331865960522096</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2264472109623229</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.02943241138975438</v>
+        <v>0.03098144107794461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2832392783468958</v>
+        <v>-0.3148362455102555</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7647502811434954</v>
+        <v>-0.7750418967367698</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03920050098932111</v>
+        <v>0.02962981325961817</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1921841930015935</v>
+        <v>-0.1843420111981464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7225216167095864</v>
+        <v>-0.7191229336586908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1024604756592586</v>
+        <v>0.08243565538962054</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1817200373335949</v>
+        <v>-0.1825778026939588</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.712789986017913</v>
+        <v>-0.7110665649910339</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5648994185169876</v>
+        <v>0.6082754591059766</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1443941025634541</v>
+        <v>0.1450223078787066</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4180428897535192</v>
+        <v>-0.4639341642083594</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4529163779485555</v>
+        <v>0.4476400554982621</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1726507513033557</v>
+        <v>0.1819378400430174</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5228195926792947</v>
+        <v>-0.5205239126100381</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4157398896697331</v>
+        <v>0.4348005385590775</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.08127848384993301</v>
+        <v>0.1129599870855827</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5261000755909739</v>
+        <v>-0.5369942520298102</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.121125985402332</v>
+        <v>0.9242925768388335</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.93637417094838</v>
+        <v>-15.76060039596208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-25.20483991615446</v>
+        <v>-24.7450320306225</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.09751665039198</v>
+        <v>-10.9066099436392</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-31.65174033884062</v>
+        <v>-31.29840222581574</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-29.90249664468504</v>
+        <v>-29.29723352526153</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.298034649629995</v>
+        <v>-2.97200890397586</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-21.19378804085892</v>
+        <v>-22.08027404816193</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-25.2122053831859</v>
+        <v>-25.23790234465661</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.70192307402428</v>
+        <v>15.8498164942221</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.19691001780495</v>
+        <v>-2.979902739691044</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-13.50181533037523</v>
+        <v>-12.68450649184829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.000364658635566</v>
+        <v>5.322706197630394</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-18.07998603039517</v>
+        <v>-17.39215832193521</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-16.66284605372915</v>
+        <v>-16.08786324525117</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>8.71735019051626</v>
+        <v>8.354920586363765</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-12.2138428171198</v>
+        <v>-12.96830161104325</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-16.67273777743148</v>
+        <v>-16.60722487191818</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3322128108240985</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.7089373543125581</v>
+        <v>-0.708937354312558</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.05658794065180225</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.03582576070268138</v>
+        <v>0.02662852612671495</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5160145308181161</v>
+        <v>-0.5076882453669599</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.8108441843328356</v>
+        <v>-0.8131825259152838</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2417306193684594</v>
+        <v>-0.2536370830539985</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7545228319453054</v>
+        <v>-0.754009472693859</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6992159812023743</v>
+        <v>-0.6971757604199365</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06724158787135999</v>
+        <v>-0.08191762373937474</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6126242443584833</v>
+        <v>-0.612919646531735</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7151914974656366</v>
+        <v>-0.7176086582317992</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6778639188096541</v>
+        <v>0.6804231348870007</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.09618019262695182</v>
+        <v>-0.1246732544814031</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5554773874948626</v>
+        <v>-0.5480084671844143</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1811436779916889</v>
+        <v>0.1553537058819456</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.5194643119717992</v>
+        <v>-0.5199559585621055</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4762785319230171</v>
+        <v>-0.4740568783055651</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.284925170755454</v>
+        <v>0.2791807244846039</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.408299874671176</v>
+        <v>-0.4230862718590148</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5560810886753089</v>
+        <v>-0.5490011556284312</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.04425345615158283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-14.23768253766002</v>
+        <v>-14.23768253766003</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-12.60613061253194</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.861735737054836</v>
+        <v>-6.703301413436644</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.862511832924493</v>
+        <v>-7.519464195586026</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-21.47201077716707</v>
+        <v>-21.50265911394498</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-19.27662737247221</v>
+        <v>-19.58006415383503</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-20.25769118318393</v>
+        <v>-20.048675791626</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-35.15366119651052</v>
+        <v>-36.09539351630857</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.1534940658724</v>
+        <v>-10.83397258258653</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-11.46668978209955</v>
+        <v>-11.72005271300694</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-26.27080287701282</v>
+        <v>-26.68137277695966</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.212350335173534</v>
+        <v>7.80767570439294</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.370213313036905</v>
+        <v>6.796558131462184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.397049237399899</v>
+        <v>-6.362412388833095</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-5.748236680627004</v>
+        <v>-5.64733043537956</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.948960522926366</v>
+        <v>-6.008322078165702</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-22.69108891730971</v>
+        <v>-22.94970056726026</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.300090834864376</v>
+        <v>-1.188056424276218</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.439618116519176</v>
+        <v>-1.24104285893227</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-16.46666395538485</v>
+        <v>-16.64768911163724</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.00154468385969923</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.496971769619815</v>
+        <v>-0.4969717696198151</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2991577010054804</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1901283877800638</v>
+        <v>-0.2129358257652695</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2178918835677015</v>
+        <v>-0.2347341371335974</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6778813191982431</v>
+        <v>-0.6981168810632491</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4232146553446831</v>
+        <v>-0.4241953982512199</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4460334396897052</v>
+        <v>-0.4368956507906022</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7689528182336931</v>
+        <v>-0.7774370725887453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.291887945469161</v>
+        <v>-0.2856725553474685</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3036839156500123</v>
+        <v>-0.3104461714882439</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7089776426919252</v>
+        <v>-0.7020476324475893</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2868899472369228</v>
+        <v>0.3085048811398247</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2981630435432993</v>
+        <v>0.2738487995539364</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2293649566551172</v>
+        <v>-0.2515888622208231</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1465895054487442</v>
+        <v>-0.1473300790147647</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1496229873023577</v>
+        <v>-0.1513714540763323</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5715163296119729</v>
+        <v>-0.5886069858579609</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.03813156652747819</v>
+        <v>-0.03740447403543117</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.04477025653367674</v>
+        <v>-0.03722891844990509</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.5037046195284343</v>
+        <v>-0.4946605585195732</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.063933235402245</v>
+        <v>-5.116714791884163</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-10.29521080502545</v>
+        <v>-10.48334358328731</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-31.17097406072633</v>
+        <v>-30.44780879193733</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3285052028451385</v>
+        <v>-0.4706449276140752</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-16.90490090098502</v>
+        <v>-17.48227517440131</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-32.18539900599835</v>
+        <v>-31.38803454047859</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.711721751491757</v>
+        <v>0.2577122640690182</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-12.06337668359999</v>
+        <v>-11.51807207649276</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-29.3040901230625</v>
+        <v>-29.10277143633105</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.12475253791926</v>
+        <v>13.97087223120935</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.546330108496358</v>
+        <v>7.474086112772095</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-15.28316609660178</v>
+        <v>-15.23768697019106</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.21524306228607</v>
+        <v>19.57995648992422</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2792566356965378</v>
+        <v>0.03569261431158362</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-17.69528072635761</v>
+        <v>-17.48613957891144</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.16969958952154</v>
+        <v>13.57297383106546</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.468344018377103</v>
+        <v>1.265651116464104</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-19.021367170985</v>
+        <v>-18.71213326985404</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1518356349716192</v>
+        <v>-0.1566621225240623</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3081244526662025</v>
+        <v>-0.3154817538355338</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.9144497015957206</v>
+        <v>-0.9155118453853675</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.01262104289548906</v>
+        <v>-0.01658208257017135</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4864467043382905</v>
+        <v>-0.4877566396383068</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8656546527194919</v>
+        <v>-0.8670034337372787</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02059967963400193</v>
+        <v>0.008429217055380708</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3576365560815087</v>
+        <v>-0.3564381555925969</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.8690837101102155</v>
+        <v>-0.8681412497281188</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6017480511283833</v>
+        <v>0.5996532509043395</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3198029388170491</v>
+        <v>0.337094262938662</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.6314703631956462</v>
+        <v>-0.6482805586560065</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7730896205621495</v>
+        <v>0.7664115643249093</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02341547059057641</v>
+        <v>0.01167798315867926</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.6839761106492827</v>
+        <v>-0.6769388746667135</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5539442200612333</v>
+        <v>0.530574643707138</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0570170393873654</v>
+        <v>0.0510963611690701</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.7198373001665725</v>
+        <v>-0.7153973268168331</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.310635957102296</v>
+        <v>-5.882838284556351</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-12.20767111327303</v>
+        <v>-11.58483866493593</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-23.25546121950417</v>
+        <v>-23.15877680872329</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.060246172897638</v>
+        <v>-4.499291181192336</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-18.11063061356939</v>
+        <v>-18.47472086855599</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-34.93346677697607</v>
+        <v>-34.67054694103074</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.598884791921097</v>
+        <v>-3.205331099022494</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.62334046055513</v>
+        <v>-12.92993392510658</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-27.06749271940002</v>
+        <v>-27.37314199501112</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.01721436837208</v>
+        <v>10.31294399765486</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3.545456990266118</v>
+        <v>3.251769589895094</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-9.603561351602634</v>
+        <v>-10.03183050726613</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.29191732004401</v>
+        <v>12.81192025904006</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.69737440724581</v>
+        <v>-1.968353975291763</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-21.12922360320234</v>
+        <v>-20.69685224281262</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.646091991503896</v>
+        <v>8.810428849186511</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.8910956399581613</v>
+        <v>-1.531859531295909</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-17.42025060989291</v>
+        <v>-17.48165457962331</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1958326180838566</v>
+        <v>-0.1848760400924943</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3760904956387802</v>
+        <v>-0.3747020881900902</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7335773324787951</v>
+        <v>-0.7229841872106786</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1137309106080981</v>
+        <v>-0.1060981157951611</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.414222876111328</v>
+        <v>-0.4175398194342222</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7940925806841306</v>
+        <v>-0.798290132572074</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.07231275322101663</v>
+        <v>-0.08530141797808428</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3399331373905835</v>
+        <v>-0.3473339032897555</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7349682074990488</v>
+        <v>-0.7373188684286587</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.4022508122910171</v>
+        <v>0.4335369475468965</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.1535311111158803</v>
+        <v>0.1364751412485955</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.3952689624704234</v>
+        <v>-0.4036100206983991</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3500065606238276</v>
+        <v>0.3596603701749556</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.04622779053194676</v>
+        <v>-0.05293172962073278</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.5946160382013094</v>
+        <v>-0.5990291868275606</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.313184862652361</v>
+        <v>0.2922134700240452</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.02792552592298708</v>
+        <v>-0.04927331063374125</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.5572718314202894</v>
+        <v>-0.5613438309938816</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-3.443302148670069</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-11.49608083888482</v>
+        <v>-11.49608083888481</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.852547677827722</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.188248627698214</v>
+        <v>-2.3031139666734</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-8.962063304056295</v>
+        <v>-8.810264094935457</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.3666745195397</v>
+        <v>-17.00848001113883</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.73814932300079</v>
+        <v>-2.061803077538888</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-14.15436682130779</v>
+        <v>-14.38218187505545</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-21.35285735645947</v>
+        <v>-20.52627637152108</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.03449819709573501</v>
+        <v>-0.3623002677652644</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-10.00640902311652</v>
+        <v>-10.21918815618582</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-17.43928708356114</v>
+        <v>-17.95319126998275</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>9.892347980674012</v>
+        <v>9.071639104951075</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.782743991002979</v>
+        <v>2.187599836642598</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.808744173393285</v>
+        <v>-5.677235707605865</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.137031181251654</v>
+        <v>9.596682386774898</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-2.881295475451116</v>
+        <v>-2.997053213191661</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-11.03688145290318</v>
+        <v>-10.13286283474358</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.109072798052566</v>
+        <v>7.988449186645045</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.889608104220497</v>
+        <v>-2.242480181047264</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-10.10441402645544</v>
+        <v>-10.40252568438487</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1131871179084996</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.3778954623250456</v>
+        <v>-0.3778954623250455</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1002522706042151</v>
@@ -2044,7 +2044,7 @@
         <v>-0.2120870404701781</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.4136276613117246</v>
+        <v>-0.4136276613117247</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1110846041706862</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.03765952341324691</v>
+        <v>-0.06537667273155956</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2710254928729167</v>
+        <v>-0.2624117099720968</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5023285089888984</v>
+        <v>-0.5021983567395726</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.04296856063567092</v>
+        <v>-0.05038158306054318</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3400868796782524</v>
+        <v>-0.3487401086004354</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.5113908997025698</v>
+        <v>-0.5009944558342087</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.001355226768308707</v>
+        <v>-0.01006074649431376</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2727087185108689</v>
+        <v>-0.2726187339210945</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4769214007688616</v>
+        <v>-0.4846504735751192</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3479915245776676</v>
+        <v>0.3353972166574894</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.06172186260558375</v>
+        <v>0.07921924106940213</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.2074539395729005</v>
+        <v>-0.189520146058387</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2583676647678759</v>
+        <v>0.2674367679134408</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.07641656904758905</v>
+        <v>-0.08120207977106787</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.3069959123365689</v>
+        <v>-0.2920385606213004</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2492929119311058</v>
+        <v>0.2465611910832084</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.06147268962613218</v>
+        <v>-0.06766370639448817</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.3101173146642568</v>
+        <v>-0.316215011550938</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.508694687729065</v>
+        <v>-2.172014138500679</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-10.22529155922853</v>
+        <v>-9.879898225273982</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-26.41448876717782</v>
+        <v>-26.85256759532539</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.695003373556502</v>
+        <v>-4.065268434837468</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-18.28956994360058</v>
+        <v>-18.76337740305823</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-32.66526527792241</v>
+        <v>-32.74797170248389</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.9196244293259035</v>
+        <v>-1.013337058504042</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-13.2946708776609</v>
+        <v>-12.95111022298963</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-28.77949148017838</v>
+        <v>-28.54351714809055</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>7.97109995383923</v>
+        <v>7.968483715644087</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-0.6761478368194828</v>
+        <v>-0.5587664030661856</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-18.47453149508267</v>
+        <v>-18.60068791750031</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.274081995528108</v>
+        <v>6.869718637282568</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-9.604825916729244</v>
+        <v>-9.40740242540069</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-25.04721678370571</v>
+        <v>-24.96509936838753</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.120918250420522</v>
+        <v>6.283835962573978</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-6.390367544534314</v>
+        <v>-5.980772599398294</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-23.00117659568771</v>
+        <v>-22.90769163200121</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>-0.3083325311299576</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.8158316375002679</v>
+        <v>-0.815831637500268</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.08060194097430144</v>
+        <v>-0.06970246908885644</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.334548713406247</v>
+        <v>-0.3258729502429139</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8627273657309529</v>
+        <v>-0.8591390502189182</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.07376191293721537</v>
+        <v>-0.1083523323259021</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5005381257185549</v>
+        <v>-0.5092656619783573</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.8796170302033562</v>
+        <v>-0.8758570729535823</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.02696384909456206</v>
+        <v>-0.03376466873725902</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.3956786721443583</v>
+        <v>-0.3909539697717255</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.8545228779951847</v>
+        <v>-0.8565447677284048</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2978993633041604</v>
+        <v>0.3007926292279133</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.02640876615723787</v>
+        <v>-0.02045716610044705</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.7064044138777215</v>
+        <v>-0.705741019145448</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2261155503876225</v>
+        <v>0.2101439771681661</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2937430573456424</v>
+        <v>-0.2898134621698827</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.7766976495113895</v>
+        <v>-0.771500295069657</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2054122872253003</v>
+        <v>0.2114705038185255</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.2130220052106558</v>
+        <v>-0.2050065709212394</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.7703181385313629</v>
+        <v>-0.7721814640763811</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.685040905814825</v>
+        <v>1.902208197016397</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-5.792584179326322</v>
+        <v>-5.595894896171997</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-19.57263697304388</v>
+        <v>-19.2967357698062</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.9622319211737843</v>
+        <v>-0.7694666062281809</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-12.92276807633019</v>
+        <v>-12.54124848038557</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-25.56311383123003</v>
+        <v>-25.36909635364147</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.286694241909169</v>
+        <v>1.14203064634993</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-8.515167175000277</v>
+        <v>-8.580567225765424</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-21.71801885037694</v>
+        <v>-21.8621786029597</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>6.594862220696853</v>
+        <v>6.505056325896708</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-1.1327513755839</v>
+        <v>-1.307968784357139</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-15.01825215787863</v>
+        <v>-15.11513660561055</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.057238914870482</v>
+        <v>4.014995293362221</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-8.064724655087792</v>
+        <v>-8.086040514431041</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-21.29593511487397</v>
+        <v>-21.16769844153373</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.796406490058911</v>
+        <v>4.575169049851168</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-5.045369280957295</v>
+        <v>-5.209762442714641</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-18.86609893205311</v>
+        <v>-18.77583337826188</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.05275153759596403</v>
+        <v>0.06409859033752179</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1945962643477269</v>
+        <v>-0.1891450845883604</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.6548803940438425</v>
+        <v>-0.6476911520654129</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.02531859130111253</v>
+        <v>-0.02039676046564762</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.333174093575328</v>
+        <v>-0.328315553953289</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.6666722027776353</v>
+        <v>-0.6632541436396413</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.03883382036677163</v>
+        <v>0.03426543424533331</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.2540373164089783</v>
+        <v>-0.2540072074430461</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.6441797143205975</v>
+        <v>-0.6433303888524784</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2408911248575505</v>
+        <v>0.2385721268744762</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.04060611049218535</v>
+        <v>-0.04910173316407289</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.5479638493315153</v>
+        <v>-0.5442832750877882</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1130518525748078</v>
+        <v>0.1121438676088221</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.2245871369707965</v>
+        <v>-0.2249305627191943</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.5928362159602971</v>
+        <v>-0.5920254660459066</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1493482987723523</v>
+        <v>0.1428707410024004</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.1586906290630787</v>
+        <v>-0.162765583133198</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.585368321915084</v>
+        <v>-0.5803488482498069</v>
       </c>
     </row>
     <row r="58">
